--- a/Assets/Excel/Storage/Storage.xlsx
+++ b/Assets/Excel/Storage/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A6C9AF-CF24-452A-AF0A-E452194394CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A8BDBF-4C50-47C9-A439-3A7F4CE27F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{5D827FDB-3D87-44DC-BC1E-84EB5B696D4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D827FDB-3D87-44DC-BC1E-84EB5B696D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>TenKho</t>
   </si>
@@ -55,9 +55,6 @@
     <t>MoTa</t>
   </si>
   <si>
-    <t>kho Excel</t>
-  </si>
-  <si>
     <t>kExcel</t>
   </si>
   <si>
@@ -65,16 +62,58 @@
   </si>
   <si>
     <t>khoAll</t>
+  </si>
+  <si>
+    <t>khoExcel1</t>
+  </si>
+  <si>
+    <t>khoExcel2</t>
+  </si>
+  <si>
+    <t>khoExcel3</t>
+  </si>
+  <si>
+    <t>khoExcel4</t>
+  </si>
+  <si>
+    <t>khoExcel5</t>
+  </si>
+  <si>
+    <t>khoExcel6</t>
+  </si>
+  <si>
+    <t>khoExcel7</t>
+  </si>
+  <si>
+    <t>khoExcel8</t>
+  </si>
+  <si>
+    <t>khoExcel9</t>
+  </si>
+  <si>
+    <t>khoExcel10</t>
+  </si>
+  <si>
+    <t>khoExcel11</t>
+  </si>
+  <si>
+    <t>khoExcel12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C34D6A-8752-4C76-BC59-E44550E99B6D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,25 +508,201 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E8">
         <v>123</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>123</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Assets/Excel/Storage/Storage.xlsx
+++ b/Assets/Excel/Storage/Storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A8BDBF-4C50-47C9-A439-3A7F4CE27F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC3355-5383-4C3C-A9CE-DCA3B4A78C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D827FDB-3D87-44DC-BC1E-84EB5B696D4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2014B25C-E476-4934-9435-086DAEF0770C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,69 +35,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
-  <si>
-    <t>TenKho</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+  <si>
+    <t>TieuDe</t>
+  </si>
+  <si>
+    <t>MaHoSo</t>
+  </si>
+  <si>
+    <t>KyHieu</t>
+  </si>
+  <si>
+    <t>MaDanhMuc</t>
   </si>
   <si>
     <t>MaKho</t>
   </si>
   <si>
-    <t>MaKhoCha</t>
-  </si>
-  <si>
-    <t>TrangThai</t>
-  </si>
-  <si>
-    <t>KichThuoc</t>
+    <t>MaNgan</t>
+  </si>
+  <si>
+    <t>MaLoaiHoSo</t>
   </si>
   <si>
     <t>MoTa</t>
   </si>
   <si>
-    <t>kExcel</t>
-  </si>
-  <si>
-    <t>kho excel test thu</t>
-  </si>
-  <si>
-    <t>khoAll</t>
-  </si>
-  <si>
-    <t>khoExcel1</t>
-  </si>
-  <si>
-    <t>khoExcel2</t>
-  </si>
-  <si>
-    <t>khoExcel3</t>
-  </si>
-  <si>
-    <t>khoExcel4</t>
-  </si>
-  <si>
-    <t>khoExcel5</t>
-  </si>
-  <si>
-    <t>khoExcel6</t>
-  </si>
-  <si>
-    <t>khoExcel7</t>
-  </si>
-  <si>
-    <t>khoExcel8</t>
-  </si>
-  <si>
-    <t>khoExcel9</t>
-  </si>
-  <si>
-    <t>khoExcel10</t>
-  </si>
-  <si>
-    <t>khoExcel11</t>
-  </si>
-  <si>
-    <t>khoExcel12</t>
+    <t>ThoiGianLuuTru</t>
+  </si>
+  <si>
+    <t>ThoiHanBaoQuan</t>
+  </si>
+  <si>
+    <t>type1</t>
+  </si>
+  <si>
+    <t>dm1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>hồ sơ excel 15</t>
+  </si>
+  <si>
+    <t>hồ sơ excel 16</t>
+  </si>
+  <si>
+    <t>hồ sơ excel 17</t>
   </si>
 </sst>
 </file>
@@ -139,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,15 +148,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC35AFF1-B0C9-4F8A-A1FA-120B61FA8640}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{CC35AFF1-B0C9-4F8A-A1FA-120B61FA8640}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C1C5613F-B857-4348-85AD-4869685B0088}" name="TenKho"/>
-    <tableColumn id="2" xr3:uid="{E0DAA9A1-9557-48E0-8653-AF53BCEF1FBB}" name="MaKho"/>
-    <tableColumn id="3" xr3:uid="{18C16029-89B6-427C-9C4F-3153D03B2F79}" name="MaKhoCha"/>
-    <tableColumn id="4" xr3:uid="{72BDF09C-0F25-49C6-9DFD-B13E1AF4A566}" name="TrangThai"/>
-    <tableColumn id="5" xr3:uid="{CD9FB96B-A6F1-4272-AEFC-0325A1267A33}" name="KichThuoc"/>
-    <tableColumn id="6" xr3:uid="{EB58F056-075D-4B3B-AA39-82D05DD6C1EF}" name="MoTa"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{68E43AAA-E17F-42C5-9AE3-8F66AAC12F7B}" name="Table6" displayName="Table6" ref="A1:J20" totalsRowShown="0">
+  <autoFilter ref="A1:J20" xr:uid="{68E43AAA-E17F-42C5-9AE3-8F66AAC12F7B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B0A2AE74-DD54-46D1-85BE-67D1E86DAF3E}" name="TieuDe"/>
+    <tableColumn id="2" xr3:uid="{835101E0-7D6C-4941-B00C-CF5AA9C66BDE}" name="MaLoaiHoSo"/>
+    <tableColumn id="3" xr3:uid="{2635086F-74A7-467A-83BD-281AD31CFE1E}" name="MaDanhMuc"/>
+    <tableColumn id="4" xr3:uid="{6EF7C8BC-3ED8-4C29-94DA-CBEA22E6411F}" name="MaKho"/>
+    <tableColumn id="5" xr3:uid="{26447AEF-982D-4884-BE9F-0A7FC80B531F}" name="MaNgan"/>
+    <tableColumn id="6" xr3:uid="{46BC41F4-DBD7-4B77-A8DF-EBCB82043745}" name="KyHieu"/>
+    <tableColumn id="7" xr3:uid="{A0010F2E-5422-4592-8D97-E88B0984A806}" name="MaHoSo"/>
+    <tableColumn id="8" xr3:uid="{7091C223-9D3E-421D-A6BF-21C83E1ED7E7}" name="MoTa"/>
+    <tableColumn id="9" xr3:uid="{E8E53261-93F9-4D9E-9B3F-F23B38BA11FD}" name="ThoiGianLuuTru"/>
+    <tableColumn id="10" xr3:uid="{BC95174C-9FCE-46AA-A7B0-7D05720B8ABF}" name="ThoiHanBaoQuan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,243 +462,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C34D6A-8752-4C76-BC59-E44550E99B6D}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA4CF28-D6F8-414C-9217-A223C3D83110}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>133</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE(C2, ".", D2,".", E2,".", F2,)</f>
+        <v>dm1.k1.n1.133</v>
+      </c>
+      <c r="H2">
+        <v>123466</v>
+      </c>
+      <c r="I2" s="1">
+        <v>36568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>134</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G4" si="0">CONCATENATE(C3, ".", D3,".", E3,".", F3,)</f>
+        <v>dm1.k1.n1.134</v>
+      </c>
+      <c r="H3">
+        <v>123467</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36569</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>123</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4">
+        <v>135</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>dm1.k1.n1.135</v>
+      </c>
+      <c r="H4">
+        <v>123468</v>
+      </c>
+      <c r="I4" s="1">
+        <v>36570</v>
+      </c>
+      <c r="J4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Excel/Storage/Storage.xlsx
+++ b/Assets/Excel/Storage/Storage.xlsx
@@ -8,103 +8,135 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC3355-5383-4C3C-A9CE-DCA3B4A78C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE3477-E8FF-4D95-B412-C818CE32BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2014B25C-E476-4934-9435-086DAEF0770C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="ThongTinBang" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
-  <si>
-    <t>TieuDe</t>
-  </si>
-  <si>
-    <t>MaHoSo</t>
-  </si>
-  <si>
-    <t>KyHieu</t>
-  </si>
-  <si>
-    <t>MaDanhMuc</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+  <si>
+    <t>TenKho</t>
   </si>
   <si>
     <t>MaKho</t>
   </si>
   <si>
-    <t>MaNgan</t>
-  </si>
-  <si>
-    <t>MaLoaiHoSo</t>
+    <t>MaKhoCha</t>
+  </si>
+  <si>
+    <t>TrangThai</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
   </si>
   <si>
     <t>MoTa</t>
   </si>
   <si>
-    <t>ThoiGianLuuTru</t>
-  </si>
-  <si>
-    <t>ThoiHanBaoQuan</t>
-  </si>
-  <si>
-    <t>type1</t>
-  </si>
-  <si>
-    <t>dm1</t>
+    <t>TenKhoCha</t>
+  </si>
+  <si>
+    <t>MaTrangThai</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Đóng</t>
+  </si>
+  <si>
+    <t>kho 1</t>
   </si>
   <si>
     <t>k1</t>
   </si>
   <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>hồ sơ excel 15</t>
-  </si>
-  <si>
-    <t>hồ sơ excel 16</t>
-  </si>
-  <si>
-    <t>hồ sơ excel 17</t>
+    <t>Mở</t>
+  </si>
+  <si>
+    <t>kho 2</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>kho 3</t>
+  </si>
+  <si>
+    <t>k3</t>
+  </si>
+  <si>
+    <t>kho 4</t>
+  </si>
+  <si>
+    <t>k4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kho mật </t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>kho excel 1</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>kho excel 2</t>
+  </si>
+  <si>
+    <t>kho excel 3</t>
+  </si>
+  <si>
+    <t>kho excel 4</t>
+  </si>
+  <si>
+    <t>kho excel 5</t>
+  </si>
+  <si>
+    <t>kho excel 6</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,8 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,21 +180,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{68E43AAA-E17F-42C5-9AE3-8F66AAC12F7B}" name="Table6" displayName="Table6" ref="A1:J20" totalsRowShown="0">
-  <autoFilter ref="A1:J20" xr:uid="{68E43AAA-E17F-42C5-9AE3-8F66AAC12F7B}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B0A2AE74-DD54-46D1-85BE-67D1E86DAF3E}" name="TieuDe"/>
-    <tableColumn id="2" xr3:uid="{835101E0-7D6C-4941-B00C-CF5AA9C66BDE}" name="MaLoaiHoSo"/>
-    <tableColumn id="3" xr3:uid="{2635086F-74A7-467A-83BD-281AD31CFE1E}" name="MaDanhMuc"/>
-    <tableColumn id="4" xr3:uid="{6EF7C8BC-3ED8-4C29-94DA-CBEA22E6411F}" name="MaKho"/>
-    <tableColumn id="5" xr3:uid="{26447AEF-982D-4884-BE9F-0A7FC80B531F}" name="MaNgan"/>
-    <tableColumn id="6" xr3:uid="{46BC41F4-DBD7-4B77-A8DF-EBCB82043745}" name="KyHieu"/>
-    <tableColumn id="7" xr3:uid="{A0010F2E-5422-4592-8D97-E88B0984A806}" name="MaHoSo"/>
-    <tableColumn id="8" xr3:uid="{7091C223-9D3E-421D-A6BF-21C83E1ED7E7}" name="MoTa"/>
-    <tableColumn id="9" xr3:uid="{E8E53261-93F9-4D9E-9B3F-F23B38BA11FD}" name="ThoiGianLuuTru"/>
-    <tableColumn id="10" xr3:uid="{BC95174C-9FCE-46AA-A7B0-7D05720B8ABF}" name="ThoiHanBaoQuan"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F7">
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenKho"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaKho"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="MaKhoCha"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TrangThai"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="KichThuoc"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MoTa"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B7">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenKhoCha"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaKho"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="D1:E3">
+  <autoFilter ref="D1:E3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TrangThai"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="MaTrangThai"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -462,180 +512,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA4CF28-D6F8-414C-9217-A223C3D83110}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>133</v>
-      </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE(C2, ".", D2,".", E2,".", F2,)</f>
-        <v>dm1.k1.n1.133</v>
-      </c>
-      <c r="H2">
-        <v>123466</v>
-      </c>
-      <c r="I2" s="1">
-        <v>36568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>134</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G4" si="0">CONCATENATE(C3, ".", D3,".", E3,".", F3,)</f>
-        <v>dm1.k1.n1.134</v>
-      </c>
-      <c r="H3">
-        <v>123467</v>
-      </c>
-      <c r="I3" s="1">
-        <v>36569</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>135</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>dm1.k1.n1.135</v>
-      </c>
-      <c r="H4">
-        <v>123468</v>
-      </c>
-      <c r="I4" s="1">
-        <v>36570</v>
-      </c>
-      <c r="J4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I11" s="1"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" xr:uid="{69496F4F-9470-42D1-8157-771AF6DFF06D}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{83D387BB-DFB5-4602-B39A-26CD23EE840D}">
+          <x14:formula1>
+            <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>

--- a/Assets/Excel/Storage/Storage.xlsx
+++ b/Assets/Excel/Storage/Storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBE3477-E8FF-4D95-B412-C818CE32BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156059C9-E65C-4D90-8472-CE615E9108C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="128">
   <si>
     <t>TenKho</t>
   </si>
@@ -56,73 +56,355 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>kho 1</t>
-  </si>
-  <si>
-    <t>k1</t>
+    <t>kho e1</t>
+  </si>
+  <si>
+    <t>e1</t>
   </si>
   <si>
     <t>Mở</t>
   </si>
   <si>
-    <t>kho 2</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>kho 3</t>
-  </si>
-  <si>
-    <t>k3</t>
-  </si>
-  <si>
-    <t>kho 4</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kho mật </t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>kho excel 1</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>kho excel 2</t>
-  </si>
-  <si>
-    <t>kho excel 3</t>
-  </si>
-  <si>
-    <t>kho excel 4</t>
-  </si>
-  <si>
-    <t>kho excel 5</t>
-  </si>
-  <si>
-    <t>kho excel 6</t>
+    <t>kho e2</t>
   </si>
   <si>
     <t>e2</t>
   </si>
   <si>
+    <t>kho e3</t>
+  </si>
+  <si>
     <t>e3</t>
   </si>
   <si>
+    <t>kho e4</t>
+  </si>
+  <si>
     <t>e4</t>
   </si>
   <si>
+    <t>kho e5</t>
+  </si>
+  <si>
     <t>e5</t>
   </si>
   <si>
+    <t>kho e6</t>
+  </si>
+  <si>
     <t>e6</t>
+  </si>
+  <si>
+    <t>kho e7</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>kho e8</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>kho e9</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>kho e10</t>
+  </si>
+  <si>
+    <t>e10</t>
+  </si>
+  <si>
+    <t>kho e11</t>
+  </si>
+  <si>
+    <t>e11</t>
+  </si>
+  <si>
+    <t>kho e12</t>
+  </si>
+  <si>
+    <t>e12</t>
+  </si>
+  <si>
+    <t>kho e13</t>
+  </si>
+  <si>
+    <t>e13</t>
+  </si>
+  <si>
+    <t>kho e14</t>
+  </si>
+  <si>
+    <t>e14</t>
+  </si>
+  <si>
+    <t>kho e15</t>
+  </si>
+  <si>
+    <t>e15</t>
+  </si>
+  <si>
+    <t>kho e16</t>
+  </si>
+  <si>
+    <t>e16</t>
+  </si>
+  <si>
+    <t>kho e17</t>
+  </si>
+  <si>
+    <t>e17</t>
+  </si>
+  <si>
+    <t>kho e18</t>
+  </si>
+  <si>
+    <t>e18</t>
+  </si>
+  <si>
+    <t>kho e19</t>
+  </si>
+  <si>
+    <t>e19</t>
+  </si>
+  <si>
+    <t>kho e20</t>
+  </si>
+  <si>
+    <t>e20</t>
+  </si>
+  <si>
+    <t>kho e21</t>
+  </si>
+  <si>
+    <t>e21</t>
+  </si>
+  <si>
+    <t>khocon1</t>
+  </si>
+  <si>
+    <t>kc1</t>
+  </si>
+  <si>
+    <t>khocon2</t>
+  </si>
+  <si>
+    <t>kc2</t>
+  </si>
+  <si>
+    <t>khocon3</t>
+  </si>
+  <si>
+    <t>kc3</t>
+  </si>
+  <si>
+    <t>khocon4</t>
+  </si>
+  <si>
+    <t>kc4</t>
+  </si>
+  <si>
+    <t>khocon5</t>
+  </si>
+  <si>
+    <t>kc5</t>
+  </si>
+  <si>
+    <t>khocon6</t>
+  </si>
+  <si>
+    <t>kc6</t>
+  </si>
+  <si>
+    <t>khocon7</t>
+  </si>
+  <si>
+    <t>kc7</t>
+  </si>
+  <si>
+    <t>khocon8</t>
+  </si>
+  <si>
+    <t>kc8</t>
+  </si>
+  <si>
+    <t>khocon9</t>
+  </si>
+  <si>
+    <t>kc9</t>
+  </si>
+  <si>
+    <t>khocon10</t>
+  </si>
+  <si>
+    <t>kc10</t>
+  </si>
+  <si>
+    <t>khocon11</t>
+  </si>
+  <si>
+    <t>kc11</t>
+  </si>
+  <si>
+    <t>khocon12</t>
+  </si>
+  <si>
+    <t>kc12</t>
+  </si>
+  <si>
+    <t>khocon13</t>
+  </si>
+  <si>
+    <t>kc13</t>
+  </si>
+  <si>
+    <t>khocon14</t>
+  </si>
+  <si>
+    <t>kc14</t>
+  </si>
+  <si>
+    <t>khocon15</t>
+  </si>
+  <si>
+    <t>kc15</t>
+  </si>
+  <si>
+    <t>khocon16</t>
+  </si>
+  <si>
+    <t>kc16</t>
+  </si>
+  <si>
+    <t>khocon17</t>
+  </si>
+  <si>
+    <t>kc17</t>
+  </si>
+  <si>
+    <t>khocon18</t>
+  </si>
+  <si>
+    <t>kc18</t>
+  </si>
+  <si>
+    <t>khocon19</t>
+  </si>
+  <si>
+    <t>kc19</t>
+  </si>
+  <si>
+    <t>khocon20</t>
+  </si>
+  <si>
+    <t>kc20</t>
+  </si>
+  <si>
+    <t>kho concon1</t>
+  </si>
+  <si>
+    <t>kcc1</t>
+  </si>
+  <si>
+    <t>kho concon2</t>
+  </si>
+  <si>
+    <t>kcc2</t>
+  </si>
+  <si>
+    <t>kho concon3</t>
+  </si>
+  <si>
+    <t>kcc3</t>
+  </si>
+  <si>
+    <t>kho concon4</t>
+  </si>
+  <si>
+    <t>kcc4</t>
+  </si>
+  <si>
+    <t>kho concon5</t>
+  </si>
+  <si>
+    <t>kcc5</t>
+  </si>
+  <si>
+    <t>kho concon6</t>
+  </si>
+  <si>
+    <t>kcc6</t>
+  </si>
+  <si>
+    <t>kho concon7</t>
+  </si>
+  <si>
+    <t>kcc7</t>
+  </si>
+  <si>
+    <t>kho concon8</t>
+  </si>
+  <si>
+    <t>kcc8</t>
+  </si>
+  <si>
+    <t>kho concon9</t>
+  </si>
+  <si>
+    <t>kcc9</t>
+  </si>
+  <si>
+    <t>kho concon10</t>
+  </si>
+  <si>
+    <t>kcc10</t>
+  </si>
+  <si>
+    <t>kho concon11</t>
+  </si>
+  <si>
+    <t>kcc11</t>
+  </si>
+  <si>
+    <t>kho concon12</t>
+  </si>
+  <si>
+    <t>kcc12</t>
+  </si>
+  <si>
+    <t>kho concon13</t>
+  </si>
+  <si>
+    <t>kcc13</t>
+  </si>
+  <si>
+    <t>kho concon14</t>
+  </si>
+  <si>
+    <t>kcc14</t>
+  </si>
+  <si>
+    <t>kho concon15</t>
+  </si>
+  <si>
+    <t>kcc15</t>
+  </si>
+  <si>
+    <t>kho concon16</t>
+  </si>
+  <si>
+    <t>kcc16</t>
+  </si>
+  <si>
+    <t>kho concon17</t>
+  </si>
+  <si>
+    <t>kcc17</t>
   </si>
 </sst>
 </file>
@@ -159,9 +441,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,8 +461,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F7">
-  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F18">
+  <autoFilter ref="A1:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenKho"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaKho"/>
@@ -195,8 +476,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B7">
-  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B43">
+  <autoFilter ref="A1:B43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenKhoCha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaKho"/>
@@ -513,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -530,34 +811,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -570,28 +851,34 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -599,16 +886,19 @@
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -621,43 +911,263 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -669,17 +1179,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{69496F4F-9470-42D1-8157-771AF6DFF06D}">
+        <x14:dataValidation type="list" xr:uid="{E320DCB6-67EA-44EA-A15D-22B2BB895904}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$7</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$43</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{83D387BB-DFB5-4602-B39A-26CD23EE840D}">
+        <x14:dataValidation type="list" xr:uid="{C08A9739-1E1E-4A32-856F-D7065BB4C731}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2:D18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -689,9 +1199,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -702,16 +1212,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -773,6 +1283,294 @@
       </c>
       <c r="B7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
